--- a/excel/lenet.xlsx
+++ b/excel/lenet.xlsx
@@ -47,8 +47,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,8 +90,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,21 +498,27 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <f>398125/1000/10000</f>
-        <v>3.9812500000000001E-2</v>
-      </c>
-      <c r="B3" s="3">
-        <f>82.943668/10000</f>
-        <v>8.2943667999999995E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <f>B3/A3</f>
-        <v>0.20833574379905806</v>
-      </c>
-      <c r="D3" s="4">
-        <f>B3*A3</f>
-        <v>3.30219478225E-4</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <f>52.067193/3000</f>
+        <v>1.7355731000000003E-2</v>
+      </c>
+      <c r="B4" s="3">
+        <f>12.564822/3000</f>
+        <v>4.1882739999999996E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <f>B4/A4</f>
+        <v>0.24131936592011013</v>
+      </c>
+      <c r="D4" s="4">
+        <f>B4*A4</f>
+        <v>7.269055689829401E-5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -545,45 +551,51 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <f>2108259/1000/10000</f>
-        <v>0.21082590000000001</v>
-      </c>
-      <c r="B18" s="3">
-        <f>(4820.620028+342.302669)/10000</f>
-        <v>0.51629226969999997</v>
-      </c>
-      <c r="C18" s="3">
-        <f>B18/A18</f>
-        <v>2.4489034302711383</v>
-      </c>
-      <c r="D18" s="3">
-        <f>B18*A18</f>
-        <v>0.10884778242254523</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="3">
+        <f>116.103632/600</f>
+        <v>0.19350605333333334</v>
+      </c>
+      <c r="B19" s="3">
+        <f>(284.066478+20.396503)/600</f>
+        <v>0.5074383016666667</v>
+      </c>
+      <c r="C19" s="3">
+        <f>B19/A19</f>
+        <v>2.6223381280613167</v>
+      </c>
+      <c r="D19" s="3">
+        <f>B19*A19</f>
+        <v>9.8192383065686104E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <f>A18/A3</f>
-        <v>5.2954700156985872</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" ref="B20:D20" si="0">B18/B3</f>
-        <v>62.246134292011298</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>11.754600461806163</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>329.62253773649343</v>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <f>A19/A4</f>
+        <v>11.149403809803996</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B19/B4</f>
+        <v>121.15690178499943</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C19/C4</f>
+        <v>10.866670886784336</v>
+      </c>
+      <c r="D21" s="1">
+        <f>D19/D4</f>
+        <v>1350.8272223457213</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
